--- a/Tool/Experiments.xlsx
+++ b/Tool/Experiments.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3357EB10-A5DE-47FD-BF12-EBB54FA4A834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D346E-E690-4118-B272-44642C201990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2849,7 +2849,85 @@
         <v>37.781690140845001</v>
       </c>
     </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <f>A186+A187+A188+A189+A190+A191+A192+A193+A194+A195+A196+A197+A198</f>
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <f>A199/13</f>
+        <v>616.30769230769226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>